--- a/pcd/results.xlsx
+++ b/pcd/results.xlsx
@@ -448,163 +448,163 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_B07.bmp</t>
+          <t>XRAY_L2_T01_B03.bmp</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_A08.bmp</t>
+          <t>XRAY_L2_T01_D01.bmp</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_C04.bmp</t>
+          <t>XRAY_L2_T01_C06.bmp</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_B01.bmp</t>
+          <t>XRAY_L2_T01_C03.bmp</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_A04.bmp</t>
+          <t>XRAY_L2_T01_A06.bmp</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_D08.bmp</t>
+          <t>XRAY_L2_T01_A07.bmp</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_D03.bmp</t>
+          <t>XRAY_L2_T01_F08.bmp</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_F02.bmp</t>
+          <t>XRAY_L2_T01_F05.bmp</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_D04.bmp</t>
+          <t>XRAY_L2_T01_F07.bmp</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_E06.bmp</t>
+          <t>XRAY_L2_T02_A02.bmp</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_A03.bmp</t>
+          <t>XRAY_L2_T01_E01.bmp</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_A05.bmp</t>
+          <t>XRAY_L2_T02_C02.bmp</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_A06.bmp</t>
+          <t>XRAY_L2_T02_B03.bmp</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T01_F03.bmp</t>
+          <t>XRAY_L2_T02_A07.bmp</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -616,79 +616,79 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_A08.bmp</t>
+          <t>XRAY_L2_T02_B07.bmp</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_B05.bmp</t>
+          <t>XRAY_L2_T01_E08.bmp</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_C05.bmp</t>
+          <t>XRAY_L2_T02_C03.bmp</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_A02.bmp</t>
+          <t>XRAY_L2_T02_D07.bmp</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_F03.bmp</t>
+          <t>XRAY_L2_T02_C07.bmp</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_D08.bmp</t>
+          <t>XRAY_L2_T02_D04.bmp</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T02_B06.bmp</t>
+          <t>XRAY_L2_T02_D06.bmp</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -700,175 +700,175 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_A01.bmp</t>
+          <t>XRAY_L2_T02_E07.bmp</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_C02.bmp</t>
+          <t>XRAY_L2_T02_E03.bmp</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_B03.bmp</t>
+          <t>XRAY_L2_T03_A03.bmp</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_B01.bmp</t>
+          <t>XRAY_L2_T02_E08.bmp</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_B08.bmp</t>
+          <t>XRAY_L2_T02_F04.bmp</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_D01.bmp</t>
+          <t>XRAY_L2_T03_B02.bmp</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_D04.bmp</t>
+          <t>XRAY_L2_T03_B06.bmp</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_D07.bmp</t>
+          <t>XRAY_L2_T03_C03.bmp</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_E01.bmp</t>
+          <t>XRAY_L2_T03_A05.bmp</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_D06.bmp</t>
+          <t>XRAY_L2_T03_C04.bmp</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_D08.bmp</t>
+          <t>XRAY_L2_T03_E03.bmp</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_F01.bmp</t>
+          <t>XRAY_L2_T03_E07.bmp</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_A05.bmp</t>
+          <t>XRAY_L2_T03_D05.bmp</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_A02.bmp</t>
+          <t>XRAY_L2_T03_F03.bmp</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_F02.bmp</t>
+          <t>XRAY_L2_T03_F06.bmp</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -880,19 +880,19 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T03_E05.bmp</t>
+          <t>XRAY_L2_T04_C04.bmp</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_A01.bmp</t>
+          <t>XRAY_L2_T04_A03.bmp</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -904,103 +904,103 @@
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_B05.bmp</t>
+          <t>XRAY_L2_T04_C02.bmp</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_A06.bmp</t>
+          <t>XRAY_L2_T04_C05.bmp</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_B04.bmp</t>
+          <t>XRAY_L2_T04_C08.bmp</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_E05.bmp</t>
+          <t>XRAY_L2_T04_D01.bmp</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_E08.bmp</t>
+          <t>XRAY_L2_T04_D05.bmp</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_F04.bmp</t>
+          <t>XRAY_L2_T04_F02.bmp</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_D06.bmp</t>
+          <t>XRAY_L2_T04_E04.bmp</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T04_F01.bmp</t>
+          <t>XRAY_L2_T04_D07.bmp</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T05_A04.bmp</t>
+          <t>XRAY_L2_T05_A08.bmp</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -1012,43 +1012,43 @@
     <row r="49">
       <c r="A49" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T05_C06.bmp</t>
+          <t>XRAY_L2_T04_F03.bmp</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T05_C08.bmp</t>
+          <t>XRAY_L2_T05_B03.bmp</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T05_D07.bmp</t>
+          <t>XRAY_L2_T05_C07.bmp</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_A01.bmp</t>
+          <t>XRAY_L2_T05_C01.bmp</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -1060,43 +1060,43 @@
     <row r="53">
       <c r="A53" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_B02.bmp</t>
+          <t>XRAY_L2_T05_D02.bmp</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_A03.bmp</t>
+          <t>XRAY_L2_T05_E01.bmp</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>4n</t>
+          <t>3n</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_B08.bmp</t>
+          <t>XRAY_L2_T05_E08.bmp</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_C02.bmp</t>
+          <t>XRAY_L2_T05_D08.bmp</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -1108,19 +1108,19 @@
     <row r="57">
       <c r="A57" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_C01.bmp</t>
+          <t>XRAY_L2_T05_E06.bmp</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_B05.bmp</t>
+          <t>XRAY_L2_T05_E02.bmp</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -1132,19 +1132,19 @@
     <row r="59">
       <c r="A59" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_C03.bmp</t>
+          <t>XRAY_L2_T05_F01.bmp</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_D02.bmp</t>
+          <t>XRAY_L2_T06_B03.bmp</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -1156,55 +1156,55 @@
     <row r="61">
       <c r="A61" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_C04.bmp</t>
+          <t>XRAY_L2_T06_A08.bmp</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_D06.bmp</t>
+          <t>XRAY_L2_T05_F04.bmp</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_D05.bmp</t>
+          <t>XRAY_L2_T06_A05.bmp</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_D08.bmp</t>
+          <t>XRAY_L2_T06_D04.bmp</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_E01.bmp</t>
+          <t>XRAY_L2_T06_B04.bmp</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -1216,7 +1216,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_A02.bmp</t>
+          <t>XRAY_L2_T07_A05.bmp</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -1228,19 +1228,19 @@
     <row r="67">
       <c r="A67" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T06_E05.bmp</t>
+          <t>XRAY_L2_T06_E06.bmp</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_A04.bmp</t>
+          <t>XRAY_L2_T06_E02.bmp</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -1252,19 +1252,19 @@
     <row r="69">
       <c r="A69" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_C06.bmp</t>
+          <t>XRAY_L2_T07_B06.bmp</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_A03.bmp</t>
+          <t>XRAY_L2_T07_C05.bmp</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -1276,19 +1276,19 @@
     <row r="71">
       <c r="A71" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_D08.bmp</t>
+          <t>XRAY_L2_T06_F05.bmp</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_F08.bmp</t>
+          <t>XRAY_L2_T07_B04.bmp</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -1300,43 +1300,43 @@
     <row r="73">
       <c r="A73" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T07_F03.bmp</t>
+          <t>XRAY_L2_T07_B08.bmp</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T08_A04.bmp</t>
+          <t>XRAY_L2_T07_D03.bmp</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T08_A03.bmp</t>
+          <t>XRAY_L2_T07_E02.bmp</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>3n</t>
+          <t>4n</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>XRAY_L2_T08_A07.bmp</t>
+          <t>XRAY_L2_T07_C07.bmp</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
